--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERPBirtReports\trunk\ERPBirtReports\ViewController\birtreport\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="23895" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ReportCheckList" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -35,13 +41,34 @@
   </si>
   <si>
     <t>S NO</t>
+  </si>
+  <si>
+    <t>P_REPORT_RUN_SNO</t>
+  </si>
+  <si>
+    <t>Double Quotations for Column Name</t>
+  </si>
+  <si>
+    <t>Printed By</t>
+  </si>
+  <si>
+    <t>Printed On</t>
+  </si>
+  <si>
+    <t>Page No</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Printed On (With Date time)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +129,44 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +245,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +280,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,20 +456,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="23.25">
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -414,8 +483,23 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -425,8 +509,23 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f>1+A3</f>
         <v>2</v>
@@ -437,92 +536,107 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A19" si="0">1+A4</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75">
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75">
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75">
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -532,4 +646,62 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERPBirtReports\trunk\ERPBirtReports\ViewController\birtreport\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="23895" windowHeight="9990"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ReportCheckList" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -62,13 +57,40 @@
   </si>
   <si>
     <t>Printed On (With Date time)</t>
+  </si>
+  <si>
+    <t>RPT_ADM_0001</t>
+  </si>
+  <si>
+    <t>RPT_ADM_0002</t>
+  </si>
+  <si>
+    <t>RPT_ADM_0005</t>
+  </si>
+  <si>
+    <t>RPT_ADM_0006</t>
+  </si>
+  <si>
+    <t>Country Detail</t>
+  </si>
+  <si>
+    <t>Country Form</t>
+  </si>
+  <si>
+    <t>Company Type Detail</t>
+  </si>
+  <si>
+    <t>Company Type Form</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,13 +140,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,14 +183,6 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -213,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,10 +261,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,7 +295,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,24 +470,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="31.140625" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="23.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -499,7 +514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -509,8 +524,8 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -525,7 +540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="3">
         <f>1+A3</f>
         <v>2</v>
@@ -552,91 +567,145 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A19" si="0">1+A4</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="15.75">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="15.75">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="15.75">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -649,19 +718,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -669,7 +738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -677,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -685,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5">
         <v>4</v>
       </c>
@@ -693,7 +762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6">
         <v>5</v>
       </c>

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -474,7 +477,7 @@
   <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -569,7 +572,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A19" si="0">1+A4</f>
+        <f t="shared" ref="A5:A15" si="0">1+A4</f>
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -578,6 +581,21 @@
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="3">
@@ -590,6 +608,21 @@
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="3">
@@ -688,28 +721,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75">
-      <c r="A16" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" ht="15.75">
-      <c r="A17" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1" ht="15.75">
-      <c r="A18" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" ht="15.75">
-      <c r="A19" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
+      <c r="A19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -87,6 +87,30 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>RPT_ADM_0007</t>
+  </si>
+  <si>
+    <t>RPT_ADM_0008</t>
+  </si>
+  <si>
+    <t>Company Form</t>
+  </si>
+  <si>
+    <t>Company Detail</t>
+  </si>
+  <si>
+    <t>RPT_ADM_0009</t>
+  </si>
+  <si>
+    <t>RPT_ADM_0010</t>
+  </si>
+  <si>
+    <t>Group List</t>
+  </si>
+  <si>
+    <t>Group Form</t>
   </si>
 </sst>
 </file>
@@ -477,7 +501,7 @@
   <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -524,7 +548,7 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -551,7 +575,7 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
@@ -683,23 +707,77 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -111,13 +111,22 @@
   </si>
   <si>
     <t>Group Form</t>
+  </si>
+  <si>
+    <t>RPT_ADM_0011</t>
+  </si>
+  <si>
+    <t>Country / City Report</t>
+  </si>
+  <si>
+    <t>Working</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +144,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -167,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -176,6 +193,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -515,7 +533,7 @@
     <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="23.25">
+    <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -541,7 +559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -567,7 +585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="3">
         <f>1+A3</f>
         <v>2</v>
@@ -594,7 +612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A15" si="0">1+A4</f>
         <v>3</v>
@@ -621,7 +639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -648,7 +666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -675,7 +693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -702,7 +720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -729,7 +747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -756,7 +774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -767,8 +785,11 @@
       <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75">
+      <c r="I11" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -779,26 +800,50 @@
       <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75">
+      <c r="I12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75">
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" ht="15.75">

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -117,16 +117,13 @@
   </si>
   <si>
     <t>Country / City Report</t>
-  </si>
-  <si>
-    <t>Working</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,14 +141,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -184,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -193,7 +182,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +507,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -785,9 +773,22 @@
       <c r="C11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="3">
@@ -800,9 +801,22 @@
       <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="3">

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -117,13 +117,28 @@
   </si>
   <si>
     <t>Country / City Report</t>
+  </si>
+  <si>
+    <t>RPT_ADM_0012</t>
+  </si>
+  <si>
+    <t>RPT_ADM_0013</t>
+  </si>
+  <si>
+    <t>User Form</t>
+  </si>
+  <si>
+    <t>User Detail</t>
+  </si>
+  <si>
+    <t>Working</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +156,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -173,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -182,6 +205,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +531,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -850,11 +874,29 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75">

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -531,7 +531,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -880,9 +880,22 @@
       <c r="C14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="3">

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -129,16 +129,13 @@
   </si>
   <si>
     <t>User Detail</t>
-  </si>
-  <si>
-    <t>Working</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,14 +153,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -196,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -205,7 +194,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +519,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,9 +896,22 @@
       <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="3"/>

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="42">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>User Detail</t>
+  </si>
+  <si>
+    <t>RPT_ADM_0014</t>
+  </si>
+  <si>
+    <t>Policy Form</t>
+  </si>
+  <si>
+    <t>RPT_ADM_0015</t>
+  </si>
+  <si>
+    <t>Policy Detail</t>
   </si>
 </sst>
 </file>
@@ -519,7 +531,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -914,15 +926,47 @@
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.75">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75">
+    <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="3"/>
     </row>
   </sheetData>

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -531,7 +531,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Policy Detail</t>
+  </si>
+  <si>
+    <t>Working</t>
   </si>
 </sst>
 </file>
@@ -197,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -206,6 +209,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +535,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -952,7 +956,7 @@
       </c>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -962,11 +966,14 @@
       <c r="C17" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75">
+      <c r="I17" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
+    <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="3"/>
     </row>
   </sheetData>

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="42">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Policy Detail</t>
-  </si>
-  <si>
-    <t>Working</t>
   </si>
 </sst>
 </file>
@@ -200,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -209,7 +206,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +531,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -966,9 +962,22 @@
       <c r="C17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="3"/>

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -147,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,8 +170,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +191,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -194,10 +206,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -206,8 +219,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -531,7 +546,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -936,7 +951,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>12</v>
@@ -977,7 +992,7 @@
       <c r="H17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="3"/>

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -187,13 +187,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -208,18 +208,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -546,7 +546,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -561,13 +561,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="23.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
@@ -587,16 +587,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
@@ -613,14 +613,14 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <f>1+A3</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
@@ -640,365 +640,365 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <f t="shared" ref="A5:A15" si="0">1+A4</f>
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="5"/>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="5"/>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="5"/>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="5"/>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="5"/>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="6"/>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>Policy Detail</t>
+  </si>
+  <si>
+    <t>RPT_FMS_0001</t>
+  </si>
+  <si>
+    <t>Chart of Account List</t>
+  </si>
+  <si>
+    <t>RPT_FMS_0002</t>
+  </si>
+  <si>
+    <t>Chart of Account Form</t>
   </si>
 </sst>
 </file>
@@ -546,7 +558,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -995,10 +1007,56 @@
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>Chart of Account Form</t>
+  </si>
+  <si>
+    <t>RPT_FMS_0003</t>
+  </si>
+  <si>
+    <t>RPT_FMS_0004</t>
+  </si>
+  <si>
+    <t>Sale Person List</t>
+  </si>
+  <si>
+    <t>Sale Person Form</t>
   </si>
 </sst>
 </file>
@@ -555,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I19"/>
+  <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1055,6 +1067,58 @@
         <v>12</v>
       </c>
       <c r="H19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="58">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -165,6 +165,30 @@
   </si>
   <si>
     <t>Sale Person Form</t>
+  </si>
+  <si>
+    <t>RPT_FMS_0005</t>
+  </si>
+  <si>
+    <t>RPT_FMS_0006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order Type Form </t>
+  </si>
+  <si>
+    <t>Order Type List</t>
+  </si>
+  <si>
+    <t>Customer Catagory List</t>
+  </si>
+  <si>
+    <t>Customer Catagory Form</t>
+  </si>
+  <si>
+    <t>RPT_FMS_0007</t>
+  </si>
+  <si>
+    <t>RPT_FMS_0008</t>
   </si>
 </sst>
 </file>
@@ -567,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I21"/>
+  <dimension ref="A2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1119,6 +1143,110 @@
         <v>12</v>
       </c>
       <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="60">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>RPT_FMS_0008</t>
+  </si>
+  <si>
+    <t>RPT_FMS_0009</t>
+  </si>
+  <si>
+    <t>Customer List</t>
   </si>
 </sst>
 </file>
@@ -591,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I25"/>
+  <dimension ref="A2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1247,6 +1253,32 @@
         <v>12</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERPBirtReports\trunk\ERPBirtReports\ViewController\birtreport\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="23895" windowHeight="9990"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ReportCheckList" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -155,12 +160,6 @@
     <t>Chart of Account Form</t>
   </si>
   <si>
-    <t>RPT_FMS_0003</t>
-  </si>
-  <si>
-    <t>RPT_FMS_0004</t>
-  </si>
-  <si>
     <t>Sale Person List</t>
   </si>
   <si>
@@ -195,13 +194,19 @@
   </si>
   <si>
     <t>Customer List</t>
+  </si>
+  <si>
+    <t>RPT_SCM_0003</t>
+  </si>
+  <si>
+    <t>RPT_SCM_0004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +314,14 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -355,7 +368,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,9 +400,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,6 +435,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,14 +611,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="31.140625" customWidth="1"/>
@@ -614,7 +629,7 @@
     <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="23.25">
+    <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -640,7 +655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -666,7 +681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>1+A3</f>
         <v>2</v>
@@ -693,7 +708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A15" si="0">1+A4</f>
         <v>3</v>
@@ -720,7 +735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -747,7 +762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -774,7 +789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -801,7 +816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -828,7 +843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -855,7 +870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -883,7 +898,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -911,7 +926,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -938,7 +953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -966,7 +981,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -994,7 +1009,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1021,7 +1036,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1048,7 +1063,7 @@
       </c>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1074,7 +1089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1100,15 +1115,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>22</v>
@@ -1126,16 +1141,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75">
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D21" s="4" t="s">
         <v>12</v>
       </c>
@@ -1152,15 +1167,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>22</v>
@@ -1178,15 +1193,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>12</v>
@@ -1204,15 +1219,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>22</v>
@@ -1230,15 +1245,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>12</v>
@@ -1256,15 +1271,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75">
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>22</v>
@@ -1289,19 +1304,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1309,7 +1324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -1317,7 +1332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -1325,7 +1340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -1333,7 +1348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>

--- a/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
+++ b/ERPBirtReports/ViewController/birtreport/ERP Birt Report Name In Excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="63">
   <si>
     <t xml:space="preserve">RPT_ADM_0003 </t>
   </si>
@@ -184,15 +184,6 @@
     <t>Customer Catagory Form</t>
   </si>
   <si>
-    <t>RPT_FMS_0007</t>
-  </si>
-  <si>
-    <t>RPT_FMS_0008</t>
-  </si>
-  <si>
-    <t>RPT_FMS_0009</t>
-  </si>
-  <si>
     <t>Customer List</t>
   </si>
   <si>
@@ -200,6 +191,24 @@
   </si>
   <si>
     <t>RPT_SCM_0004</t>
+  </si>
+  <si>
+    <t>RPT_SCM_0007</t>
+  </si>
+  <si>
+    <t>RPT_SCM_0008</t>
+  </si>
+  <si>
+    <t>RPT_SCM_0002</t>
+  </si>
+  <si>
+    <t>RPT_SCM_0010</t>
+  </si>
+  <si>
+    <t>Supplier List</t>
+  </si>
+  <si>
+    <t>RPT_SCM_0011</t>
   </si>
 </sst>
 </file>
@@ -612,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I26"/>
+  <dimension ref="A2:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A27" sqref="A27:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1129,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>46</v>
@@ -1146,7 +1155,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>47</v>
@@ -1224,7 +1233,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
         <v>52</v>
@@ -1250,7 +1259,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
         <v>53</v>
@@ -1276,10 +1285,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>22</v>
@@ -1295,6 +1304,40 @@
       </c>
       <c r="H26" s="4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
